--- a/UI/bin/Debug/Excel/AccountRecord.xlsx
+++ b/UI/bin/Debug/Excel/AccountRecord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Source\Repos\12.18\WMSClient\UI\bin\Debug\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgh\Desktop\wms_client\UI\bin\Debug\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,159 +21,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>零件号</t>
-  </si>
-  <si>
-    <t>零件名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>@item[i].materialNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@item[i].materialName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货库位编码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货库位名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].unit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].unitAmount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@(item[i].storageLocationNo)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].storageLocationName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@item[i].supplierName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商代号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@item[i].supplierNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>供货序号</t>
-  </si>
-  <si>
-    <t>@item[i].supplySerialNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].availablelAmount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@item[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>batchNo</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货日期</t>
-  </si>
-  <si>
-    <t>@item[i].inventaryDate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].manufactureDate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].warehouseName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>#REPEAT AREA 1 15 VAR i IN range(item.length)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称 @var item=StockRecord;""#SET TABLE COLUMNS 16//初始化代码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item.state==0?'待检测':item.state;@item.state==1?'不合格':item.state;@item.state==2?'合格':item.state;</t>
-  </si>
-  <si>
-    <t>@item[i].state==0?'待检测':'';@item[i].state==1?'不合格':'';@item[i].state==2?'合格':'';</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账目汇总表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目从属关系</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@var item=StockRecord;""#SET TABLE COLUMNS 16//初始化代码</t>
+  </si>
+  <si>
+    <t>科目名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>借方发生额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方发生额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总周期余额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].accountTitleDependence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,21 +122,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -234,16 +136,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,25 +181,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,23 +202,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,16 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="71.375" customWidth="1"/>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
     <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
@@ -639,131 +541,87 @@
     <col min="16" max="16" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.25">
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="14.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="I4" s="6"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -775,9 +633,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -789,9 +647,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/UI/bin/Debug/Excel/AccountRecord.xlsx
+++ b/UI/bin/Debug/Excel/AccountRecord.xlsx
@@ -23,26 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>@item[i].materialNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].materialName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@(item[i].storageLocationNo)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].supplierName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].supplierNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -59,9 +39,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>@var item=StockRecord;""#SET TABLE COLUMNS 16//初始化代码</t>
-  </si>
-  <si>
     <t>科目名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -82,7 +59,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>@var item=returnSummary;""#SET TABLE COLUMNS 16//初始化代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>@item[i].accountTitleDependence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].accountTitleName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].accountTitleNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].creditAmount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].debitAmount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].curBalance</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +520,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -542,11 +543,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -563,27 +564,27 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
@@ -591,22 +592,22 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -614,7 +615,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/UI/bin/Debug/Excel/AccountRecord.xlsx
+++ b/UI/bin/Debug/Excel/AccountRecord.xlsx
@@ -21,77 +21,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>#REPEAT AREA 1 15 VAR i IN range(item.length)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目从属关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借方发生额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方发生额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].accountTitleName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].accountTitleNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].creditAmount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].debitAmount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@var item=returnSummarys;""#SET TABLE COLUMNS 16//初始化代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].accountTitleDependent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总周期余额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>账目汇总表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目从属关系</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>借方发生额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷方发生额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总周期余额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@var item=returnSummary;""#SET TABLE COLUMNS 16//初始化代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].accountTitleDependence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].accountTitleName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].accountTitleNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].creditAmount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].debitAmount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].curBalance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,14 +98,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -138,10 +126,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -155,11 +144,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,12 +172,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -198,24 +194,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,17 +515,17 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="48.125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="22.375" customWidth="1"/>
@@ -542,89 +537,90 @@
     <col min="16" max="16" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="B1:E3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -636,7 +632,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -650,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/UI/bin/Debug/Excel/AccountRecord.xlsx
+++ b/UI/bin/Debug/Excel/AccountRecord.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>#REPEAT AREA 1 15 VAR i IN range(item.length)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -75,11 +75,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>@item[i].balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[0].summaryStartTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[0].summaryEndTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>账目汇总表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].balance</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +143,7 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -135,21 +151,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,22 +182,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,10 +203,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,16 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
@@ -541,78 +545,95 @@
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I7" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C16" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
